--- a/biology/Médecine/Ligament_interosseux_scapho-lunaire/Ligament_interosseux_scapho-lunaire.xlsx
+++ b/biology/Médecine/Ligament_interosseux_scapho-lunaire/Ligament_interosseux_scapho-lunaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament interosseux scapho-lunaire est un ligament inter-carpien interosseux.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le ligament interosseux scapho-lunaire est un ligament intra-articulaire reliant le scaphoïde et le lunatum.
 Il a une forme de C à concavité orientée en bas et possède trois zones :
@@ -545,12 +559,14 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament interosseux scapho-lunaire est impliqué dans l'instabilité scapho-lunaire.
 L'instabilité scapho-lunaire dynamique n'est décelable qu'au cours de certains mouvements et se produit lorsque seul ce ligament est touché.
 L'instabilité scapho-lunaire statique est permanente et se produit lorsque les autres ligaments scaphoïdiens sont touchés.
-Une déchirure de ce ligament peut être d'origine traumatique et entraîne une bascule du scaphoïde, pouvant être douloureuse à la pression sur cet os lorsque le poignet est incliné passivement du côté radial[1].
+Une déchirure de ce ligament peut être d'origine traumatique et entraîne une bascule du scaphoïde, pouvant être douloureuse à la pression sur cet os lorsque le poignet est incliné passivement du côté radial.
 </t>
         </is>
       </c>
